--- a/data/cuadros/Comercio/bh.xlsx
+++ b/data/cuadros/Comercio/bh.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="1181">
   <si>
     <t>2010</t>
   </si>
@@ -3595,7 +3595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="247">
+  <fonts count="682">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4588,8 +4588,1749 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="106">
+  <fills count="277">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5116,8 +6857,863 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="197">
+  <borders count="540">
     <border>
       <left/>
       <right/>
@@ -6593,11 +9189,2538 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="541">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -7381,6 +12504,1378 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="106" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="107" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="108" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="109" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="110" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="111" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="112" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="113" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="114" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="115" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="116" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="117" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="118" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="119" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="120" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="121" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="122" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="123" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="124" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="125" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="126" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="127" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="128" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="129" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="130" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="131" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="132" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="133" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="134" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="135" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="136" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="137" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="138" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="139" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="140" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="141" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="142" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="143" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="144" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="145" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="146" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="147" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="148" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="149" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="150" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="151" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="152" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="153" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="154" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="155" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="156" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="157" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="158" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="159" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="160" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="161" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="162" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="163" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="164" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="165" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="166" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="167" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="168" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="169" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="170" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="171" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="172" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="173" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="174" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="175" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="176" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="177" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="178" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="179" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="180" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="181" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="182" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="183" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="184" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="185" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="186" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="187" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="188" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="189" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="190" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="191" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="192" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="193" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="194" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="195" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="196" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="197" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="198" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="199" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="200" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="201" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="202" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="203" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="204" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="205" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="206" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="207" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="208" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="209" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="210" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="211" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="212" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="213" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="214" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="215" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="216" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="217" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="218" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="219" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="220" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="221" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="222" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="223" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="224" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="225" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="226" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="227" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="228" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="229" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="230" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="231" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="232" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="233" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="234" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="235" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="236" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="237" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="238" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="239" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="240" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="241" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="242" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="243" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="244" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="245" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="246" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="247" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="248" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="249" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="250" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="251" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="252" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="253" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="254" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="255" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="256" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="257" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="258" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="259" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="260" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="261" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="262" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="263" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="264" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="265" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="266" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="267" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="268" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="269" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="270" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="271" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="272" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="273" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="274" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="275" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="276" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="0" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18744,313 +25239,313 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="540" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="512" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="513" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="514" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="516" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="517" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="519" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="520" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="521"/>
+      <c r="B3" s="522" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="523" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="524" t="s">
         <v>330</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="525" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="526" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="527" t="s">
         <v>329</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="528" t="s">
         <v>330</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="529" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="530"/>
+      <c r="B4" s="531" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="532" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="533" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="534" t="s">
         <v>331</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="535" t="s">
         <v>314</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="536" t="s">
         <v>331</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="537" t="s">
         <v>314</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="538" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="395" t="s">
         <v>144</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="396" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="397" t="s">
         <v>88</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="398" t="s">
         <v>1036</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="399" t="s">
         <v>428</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="400" t="s">
         <v>88</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="401" t="s">
         <v>88</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="402" t="s">
         <v>1038</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="403" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="404" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="405" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C6" s="406" t="s">
+        <v>608</v>
+      </c>
+      <c r="D6" s="407" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E6" s="408" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" s="409" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G6" s="410" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="411" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I6" s="412" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="413" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="414" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="415" t="s">
+        <v>609</v>
+      </c>
+      <c r="D7" s="416" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E7" s="417" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="418" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G7" s="419" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="420" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I7" s="421" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="422" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="423" t="s">
         <v>1015</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="424" t="s">
         <v>153</v>
       </c>
-      <c r="D6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D8" s="425" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E8" s="426" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="427" t="s">
         <v>1025</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" s="428" t="s">
         <v>160</v>
       </c>
-      <c r="H6" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="H8" s="429" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I8" s="430" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="431" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="432" t="s">
         <v>1016</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" s="433" t="s">
         <v>154</v>
       </c>
-      <c r="D7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D9" s="434" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E9" s="435" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="436" t="s">
         <v>1026</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" s="437" t="s">
         <v>161</v>
       </c>
-      <c r="H7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C9" t="s">
-        <v>608</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="438" t="s">
         <v>1033</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="439" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="494" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="495" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="496" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="497" t="s">
         <v>88</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="498" t="s">
         <v>88</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="499" t="s">
         <v>88</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="500" t="s">
         <v>88</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="501" t="s">
         <v>1034</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="502" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="503" t="s">
         <v>309</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="504" t="s">
         <v>1019</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="505" t="s">
         <v>155</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="506" t="s">
         <v>1037</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="507" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="508" t="s">
         <v>1029</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="509" t="s">
         <v>155</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="510" t="s">
         <v>1039</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="511" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G4"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B4"/>
-    <mergeCell ref="C4"/>
-    <mergeCell ref="D4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:B4"/>
+    <mergeCell ref="C4:C4"/>
+    <mergeCell ref="D4:D4"/>
+    <mergeCell ref="E4:E4"/>
+    <mergeCell ref="F4:F4"/>
+    <mergeCell ref="G4:G4"/>
+    <mergeCell ref="H4:H4"/>
+    <mergeCell ref="I4:I4"/>
+    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
